--- a/server/4.xlsx
+++ b/server/4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,40 @@
           <t>21-4</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tushar</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pranjal</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -459,6 +493,16 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -487,6 +531,23 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pranjal</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -494,6 +555,23 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pranjal</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
